--- a/soap pic1.xlsx
+++ b/soap pic1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NickGecks\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/n10763104_qut_edu_au/Documents/University/2023/MXB344/repo/Bank_Default_Model_MXB344/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E4C611D-F054-4795-8390-ED64CA28228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{5E4C611D-F054-4795-8390-ED64CA28228A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{100996DA-4F03-403D-97B9-23362A464158}"/>
   <bookViews>
     <workbookView xWindow="21048" yWindow="2268" windowWidth="18696" windowHeight="14220" xr2:uid="{D6F269B8-01F9-467F-85DE-0119D9B7C954}"/>
   </bookViews>
@@ -425,7 +425,7 @@
                   <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38790000000000002</c:v>
+                  <c:v>0.38019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.40360000000000001</c:v>
@@ -1503,7 +1503,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.38790000000000002</v>
+        <v>0.38019999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
